--- a/2021-01__Teszt_Elek__ELEK-01_gkelsz.xlsx
+++ b/2021-01__Teszt_Elek__ELEK-01_gkelsz.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamás\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TT_GIT\UtnyilvantartoJava\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A39E691-9F1D-42A8-8B36-599613B52CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6817B357-B224-4DCD-9132-7E1E91D2A043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="453" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="453" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nyomtat" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
   <si>
     <t>ÚTNYILVÁNTARTÁS</t>
   </si>
@@ -131,7 +131,7 @@
     <t>5678</t>
   </si>
   <si>
-    <t>6956</t>
+    <t>7099</t>
   </si>
   <si>
     <t xml:space="preserve"> Teszt Elek</t>
@@ -143,7 +143,13 @@
     <t xml:space="preserve"> 16,5</t>
   </si>
   <si>
+    <t>1423</t>
+  </si>
+  <si>
     <t>0.0</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2021-01-04</t>
@@ -1036,25 +1042,25 @@
   </sheetPr>
   <dimension ref="A1:M174"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A138" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M153" sqref="M153"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="9.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="22" width="19.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="1" width="9.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="22" width="19.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.109375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="1" width="26.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="27.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="26.44140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="27.33203125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="8" max="9" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="31" width="12.28515625" collapsed="true"/>
-    <col min="11" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="8" max="9" bestFit="true" customWidth="true" style="1" width="12.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="31" width="12.33203125" collapsed="true"/>
+    <col min="11" max="16384" style="1" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="23"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1067,7 +1073,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -1080,7 +1086,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1096,7 +1102,7 @@
       </c>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1115,7 +1121,7 @@
       </c>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -1126,13 +1132,12 @@
       <c r="F5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="8" t="str">
-        <f>SUM(I10:I105)</f>
-        <v>1278</v>
+      <c r="G5" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="J5" s="30"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1143,27 +1148,26 @@
       <c r="F6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="9" t="str">
-        <f>100*G7/G5</f>
-        <v/>
+      <c r="G6" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="F7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -1191,7 +1195,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="14" t="s">
         <v>17</v>
@@ -1217,24 +1221,24 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>1</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G10" s="25" t="n">
         <f>IF(B10&lt;&gt;"",$C$5+I10,"")</f>
@@ -1247,27 +1251,27 @@
         <v>113.0</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>2</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G11" s="25" t="n">
         <f>IF(B11&lt;&gt;"",G10+I11,"")</f>
@@ -1280,27 +1284,27 @@
         <v>113.0</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>3</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G12" s="25" t="n">
         <f t="shared" ref="G12:G54" si="0">IF(B12&lt;&gt;"",G11+I12,"")</f>
@@ -1313,30 +1317,30 @@
         <v>68.0</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K12" s="42"/>
       <c r="L12" s="42"/>
       <c r="M12" s="42"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>4</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G13" s="25" t="n">
         <f t="shared" si="0"/>
@@ -1349,30 +1353,30 @@
         <v>114.0</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K13" s="42"/>
       <c r="L13" s="42"/>
       <c r="M13" s="43"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>5</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G14" s="25" t="n">
         <f t="shared" si="0"/>
@@ -1385,27 +1389,27 @@
         <v>93.0</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>6</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G15" s="25" t="n">
         <f t="shared" si="0"/>
@@ -1418,64 +1422,64 @@
         <v>316.0</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>7</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G16" s="25" t="n">
         <f t="shared" si="0"/>
-        <v>6594.0</v>
+        <v>6617.0</v>
       </c>
       <c r="H16" s="21" t="n">
         <v>0.0</v>
       </c>
       <c r="I16" s="21" t="n">
-        <v>99.0</v>
+        <v>122.0</v>
       </c>
       <c r="J16" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>8</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G17" s="25" t="n">
         <f t="shared" si="0"/>
-        <v>6822.0</v>
+        <v>6845.0</v>
       </c>
       <c r="H17" s="21" t="n">
         <v>0.0</v>
@@ -1484,31 +1488,31 @@
         <v>228.0</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>9</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G18" s="25" t="n">
         <f t="shared" si="0"/>
-        <v>6956.0</v>
+        <v>6979.0</v>
       </c>
       <c r="H18" s="21" t="n">
         <v>0.0</v>
@@ -1517,27 +1521,43 @@
         <v>134.0</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>10</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="25" t="str">
+      <c r="B19" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="25" t="n">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="19"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>7101.0</v>
+      </c>
+      <c r="H19" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I19" s="21" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>11</v>
       </c>
@@ -1554,7 +1574,7 @@
       <c r="I20" s="21"/>
       <c r="J20" s="19"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>12</v>
       </c>
@@ -1571,7 +1591,7 @@
       <c r="I21" s="21"/>
       <c r="J21" s="19"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>13</v>
       </c>
@@ -1588,7 +1608,7 @@
       <c r="I22" s="21"/>
       <c r="J22" s="19"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>14</v>
       </c>
@@ -1605,7 +1625,7 @@
       <c r="I23" s="21"/>
       <c r="J23" s="19"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>15</v>
       </c>
@@ -1622,7 +1642,7 @@
       <c r="I24" s="21"/>
       <c r="J24" s="19"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>16</v>
       </c>
@@ -1639,7 +1659,7 @@
       <c r="I25" s="21"/>
       <c r="J25" s="19"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>17</v>
       </c>
@@ -1656,7 +1676,7 @@
       <c r="I26" s="21"/>
       <c r="J26" s="19"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>18</v>
       </c>
@@ -1673,7 +1693,7 @@
       <c r="I27" s="21"/>
       <c r="J27" s="19"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>19</v>
       </c>
@@ -1690,7 +1710,7 @@
       <c r="I28" s="21"/>
       <c r="J28" s="19"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>20</v>
       </c>
@@ -1707,7 +1727,7 @@
       <c r="I29" s="21"/>
       <c r="J29" s="19"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>21</v>
       </c>
@@ -1724,7 +1744,7 @@
       <c r="I30" s="21"/>
       <c r="J30" s="19"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>22</v>
       </c>
@@ -1741,7 +1761,7 @@
       <c r="I31" s="21"/>
       <c r="J31" s="19"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>23</v>
       </c>
@@ -1758,7 +1778,7 @@
       <c r="I32" s="21"/>
       <c r="J32" s="19"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>24</v>
       </c>
@@ -1775,7 +1795,7 @@
       <c r="I33" s="21"/>
       <c r="J33" s="19"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>25</v>
       </c>
@@ -1792,7 +1812,7 @@
       <c r="I34" s="21"/>
       <c r="J34" s="19"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>26</v>
       </c>
@@ -1809,7 +1829,7 @@
       <c r="I35" s="21"/>
       <c r="J35" s="19"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
         <v>27</v>
       </c>
@@ -1826,7 +1846,7 @@
       <c r="I36" s="21"/>
       <c r="J36" s="19"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>28</v>
       </c>
@@ -1843,7 +1863,7 @@
       <c r="I37" s="21"/>
       <c r="J37" s="19"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>29</v>
       </c>
@@ -1860,7 +1880,7 @@
       <c r="I38" s="21"/>
       <c r="J38" s="19"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>30</v>
       </c>
@@ -1877,7 +1897,7 @@
       <c r="I39" s="21"/>
       <c r="J39" s="19"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
         <v>31</v>
       </c>
@@ -1894,7 +1914,7 @@
       <c r="I40" s="21"/>
       <c r="J40" s="19"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
         <v>32</v>
       </c>
@@ -1911,7 +1931,7 @@
       <c r="I41" s="21"/>
       <c r="J41" s="19"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
         <v>33</v>
       </c>
@@ -1928,7 +1948,7 @@
       <c r="I42" s="21"/>
       <c r="J42" s="19"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
         <v>34</v>
       </c>
@@ -1945,7 +1965,7 @@
       <c r="I43" s="21"/>
       <c r="J43" s="19"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
         <v>35</v>
       </c>
@@ -1962,7 +1982,7 @@
       <c r="I44" s="21"/>
       <c r="J44" s="19"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
         <v>36</v>
       </c>
@@ -1979,7 +1999,7 @@
       <c r="I45" s="21"/>
       <c r="J45" s="19"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
         <v>37</v>
       </c>
@@ -1996,7 +2016,7 @@
       <c r="I46" s="21"/>
       <c r="J46" s="19"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
         <v>38</v>
       </c>
@@ -2013,7 +2033,7 @@
       <c r="I47" s="21"/>
       <c r="J47" s="19"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="19">
         <v>39</v>
       </c>
@@ -2030,7 +2050,7 @@
       <c r="I48" s="21"/>
       <c r="J48" s="19"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
         <v>40</v>
       </c>
@@ -2047,7 +2067,7 @@
       <c r="I49" s="21"/>
       <c r="J49" s="19"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
         <v>41</v>
       </c>
@@ -2064,7 +2084,7 @@
       <c r="I50" s="21"/>
       <c r="J50" s="19"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>42</v>
       </c>
@@ -2081,7 +2101,7 @@
       <c r="I51" s="21"/>
       <c r="J51" s="19"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>43</v>
       </c>
@@ -2098,7 +2118,7 @@
       <c r="I52" s="21"/>
       <c r="J52" s="19"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
         <v>44</v>
       </c>
@@ -2115,7 +2135,7 @@
       <c r="I53" s="21"/>
       <c r="J53" s="19"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="19">
         <v>45</v>
       </c>
@@ -2132,7 +2152,7 @@
       <c r="I54" s="21"/>
       <c r="J54" s="19"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
         <v>46</v>
       </c>
@@ -2149,7 +2169,7 @@
       <c r="I55" s="21"/>
       <c r="J55" s="19"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="19">
         <v>47</v>
       </c>
@@ -2166,7 +2186,7 @@
       <c r="I56" s="21"/>
       <c r="J56" s="19"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
         <v>48</v>
       </c>
@@ -2183,7 +2203,7 @@
       <c r="I57" s="21"/>
       <c r="J57" s="19"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
         <v>49</v>
       </c>
@@ -2200,7 +2220,7 @@
       <c r="I58" s="21"/>
       <c r="J58" s="19"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
         <v>50</v>
       </c>
@@ -2217,7 +2237,7 @@
       <c r="I59" s="21"/>
       <c r="J59" s="19"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
         <v>51</v>
       </c>
@@ -2234,7 +2254,7 @@
       <c r="I60" s="21"/>
       <c r="J60" s="19"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
         <v>52</v>
       </c>
@@ -2251,7 +2271,7 @@
       <c r="I61" s="21"/>
       <c r="J61" s="19"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="19">
         <v>53</v>
       </c>
@@ -2268,7 +2288,7 @@
       <c r="I62" s="21"/>
       <c r="J62" s="19"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="19">
         <v>54</v>
       </c>
@@ -2285,7 +2305,7 @@
       <c r="I63" s="21"/>
       <c r="J63" s="19"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="19">
         <v>55</v>
       </c>
@@ -2302,7 +2322,7 @@
       <c r="I64" s="21"/>
       <c r="J64" s="19"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
         <v>56</v>
       </c>
@@ -2319,7 +2339,7 @@
       <c r="I65" s="21"/>
       <c r="J65" s="19"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="19">
         <v>57</v>
       </c>
@@ -2336,7 +2356,7 @@
       <c r="I66" s="21"/>
       <c r="J66" s="19"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
         <v>58</v>
       </c>
@@ -2353,7 +2373,7 @@
       <c r="I67" s="21"/>
       <c r="J67" s="19"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="19">
         <v>59</v>
       </c>
@@ -2370,7 +2390,7 @@
       <c r="I68" s="21"/>
       <c r="J68" s="19"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
         <v>60</v>
       </c>
@@ -2387,7 +2407,7 @@
       <c r="I69" s="21"/>
       <c r="J69" s="19"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
         <v>61</v>
       </c>
@@ -2404,7 +2424,7 @@
       <c r="I70" s="21"/>
       <c r="J70" s="19"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
         <v>62</v>
       </c>
@@ -2421,7 +2441,7 @@
       <c r="I71" s="21"/>
       <c r="J71" s="19"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="19">
         <v>63</v>
       </c>
@@ -2438,7 +2458,7 @@
       <c r="I72" s="21"/>
       <c r="J72" s="19"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
         <v>64</v>
       </c>
@@ -2455,7 +2475,7 @@
       <c r="I73" s="21"/>
       <c r="J73" s="19"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
         <v>65</v>
       </c>
@@ -2472,7 +2492,7 @@
       <c r="I74" s="21"/>
       <c r="J74" s="19"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
         <v>66</v>
       </c>
@@ -2489,7 +2509,7 @@
       <c r="I75" s="21"/>
       <c r="J75" s="19"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
         <v>67</v>
       </c>
@@ -2506,7 +2526,7 @@
       <c r="I76" s="21"/>
       <c r="J76" s="19"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <v>68</v>
       </c>
@@ -2523,7 +2543,7 @@
       <c r="I77" s="21"/>
       <c r="J77" s="19"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="19">
         <v>69</v>
       </c>
@@ -2540,7 +2560,7 @@
       <c r="I78" s="21"/>
       <c r="J78" s="19"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="19">
         <v>70</v>
       </c>
@@ -2557,7 +2577,7 @@
       <c r="I79" s="21"/>
       <c r="J79" s="19"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="19">
         <v>71</v>
       </c>
@@ -2574,7 +2594,7 @@
       <c r="I80" s="21"/>
       <c r="J80" s="19"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="19">
         <v>72</v>
       </c>
@@ -2591,7 +2611,7 @@
       <c r="I81" s="21"/>
       <c r="J81" s="19"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="19">
         <v>73</v>
       </c>
@@ -2608,7 +2628,7 @@
       <c r="I82" s="21"/>
       <c r="J82" s="19"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="19">
         <v>74</v>
       </c>
@@ -2625,7 +2645,7 @@
       <c r="I83" s="21"/>
       <c r="J83" s="19"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="19">
         <v>75</v>
       </c>
@@ -2642,7 +2662,7 @@
       <c r="I84" s="21"/>
       <c r="J84" s="19"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="19">
         <v>76</v>
       </c>
@@ -2659,7 +2679,7 @@
       <c r="I85" s="21"/>
       <c r="J85" s="19"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="19">
         <v>77</v>
       </c>
@@ -2676,7 +2696,7 @@
       <c r="I86" s="21"/>
       <c r="J86" s="19"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="19">
         <v>78</v>
       </c>
@@ -2693,7 +2713,7 @@
       <c r="I87" s="21"/>
       <c r="J87" s="19"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="19">
         <v>79</v>
       </c>
@@ -2710,7 +2730,7 @@
       <c r="I88" s="21"/>
       <c r="J88" s="19"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="19">
         <v>80</v>
       </c>
@@ -2727,7 +2747,7 @@
       <c r="I89" s="21"/>
       <c r="J89" s="19"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="19">
         <v>81</v>
       </c>
@@ -2744,7 +2764,7 @@
       <c r="I90" s="21"/>
       <c r="J90" s="19"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="19">
         <v>82</v>
       </c>
@@ -2761,7 +2781,7 @@
       <c r="I91" s="21"/>
       <c r="J91" s="19"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="19">
         <v>83</v>
       </c>
@@ -2778,7 +2798,7 @@
       <c r="I92" s="21"/>
       <c r="J92" s="19"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="19">
         <v>84</v>
       </c>
@@ -2795,7 +2815,7 @@
       <c r="I93" s="21"/>
       <c r="J93" s="19"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="19">
         <v>85</v>
       </c>
@@ -2812,7 +2832,7 @@
       <c r="I94" s="21"/>
       <c r="J94" s="19"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="19">
         <v>86</v>
       </c>
@@ -2829,7 +2849,7 @@
       <c r="I95" s="21"/>
       <c r="J95" s="19"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
         <v>87</v>
       </c>
@@ -2846,7 +2866,7 @@
       <c r="I96" s="21"/>
       <c r="J96" s="19"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="19">
         <v>88</v>
       </c>
@@ -2863,7 +2883,7 @@
       <c r="I97" s="21"/>
       <c r="J97" s="19"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="19">
         <v>89</v>
       </c>
@@ -2880,7 +2900,7 @@
       <c r="I98" s="21"/>
       <c r="J98" s="19"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="19">
         <v>90</v>
       </c>
@@ -2897,7 +2917,7 @@
       <c r="I99" s="21"/>
       <c r="J99" s="19"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="19">
         <v>91</v>
       </c>
@@ -2914,7 +2934,7 @@
       <c r="I100" s="21"/>
       <c r="J100" s="19"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="19">
         <v>92</v>
       </c>
@@ -2931,7 +2951,7 @@
       <c r="I101" s="21"/>
       <c r="J101" s="19"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="19">
         <v>93</v>
       </c>
@@ -2948,7 +2968,7 @@
       <c r="I102" s="21"/>
       <c r="J102" s="19"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="19">
         <v>94</v>
       </c>
@@ -2965,7 +2985,7 @@
       <c r="I103" s="21"/>
       <c r="J103" s="19"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="19">
         <v>95</v>
       </c>
@@ -2982,7 +3002,7 @@
       <c r="I104" s="21"/>
       <c r="J104" s="19"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="19">
         <v>96</v>
       </c>
@@ -2999,7 +3019,7 @@
       <c r="I105" s="21"/>
       <c r="J105" s="19"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="19">
         <v>97</v>
       </c>
@@ -3016,7 +3036,7 @@
       <c r="I106" s="21"/>
       <c r="J106" s="19"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="19">
         <v>98</v>
       </c>
@@ -3033,7 +3053,7 @@
       <c r="I107" s="21"/>
       <c r="J107" s="19"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="19">
         <v>99</v>
       </c>
@@ -3050,7 +3070,7 @@
       <c r="I108" s="21"/>
       <c r="J108" s="19"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="19">
         <v>100</v>
       </c>
@@ -3067,7 +3087,7 @@
       <c r="I109" s="21"/>
       <c r="J109" s="19"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="19">
         <v>101</v>
       </c>
@@ -3084,7 +3104,7 @@
       <c r="I110" s="21"/>
       <c r="J110" s="19"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="19">
         <v>102</v>
       </c>
@@ -3101,7 +3121,7 @@
       <c r="I111" s="21"/>
       <c r="J111" s="19"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="19">
         <v>103</v>
       </c>
@@ -3118,7 +3138,7 @@
       <c r="I112" s="21"/>
       <c r="J112" s="19"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="19">
         <v>104</v>
       </c>
@@ -3135,7 +3155,7 @@
       <c r="I113" s="21"/>
       <c r="J113" s="19"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="19">
         <v>105</v>
       </c>
@@ -3152,7 +3172,7 @@
       <c r="I114" s="21"/>
       <c r="J114" s="19"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="19">
         <v>106</v>
       </c>
@@ -3169,7 +3189,7 @@
       <c r="I115" s="21"/>
       <c r="J115" s="19"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="19">
         <v>107</v>
       </c>
@@ -3186,7 +3206,7 @@
       <c r="I116" s="21"/>
       <c r="J116" s="19"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="19">
         <v>108</v>
       </c>
@@ -3203,7 +3223,7 @@
       <c r="I117" s="21"/>
       <c r="J117" s="19"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="19">
         <v>109</v>
       </c>
@@ -3220,7 +3240,7 @@
       <c r="I118" s="21"/>
       <c r="J118" s="19"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="19">
         <v>110</v>
       </c>
@@ -3237,7 +3257,7 @@
       <c r="I119" s="21"/>
       <c r="J119" s="19"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="19">
         <v>111</v>
       </c>
@@ -3254,7 +3274,7 @@
       <c r="I120" s="21"/>
       <c r="J120" s="19"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="19">
         <v>112</v>
       </c>
@@ -3271,7 +3291,7 @@
       <c r="I121" s="21"/>
       <c r="J121" s="19"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="19">
         <v>113</v>
       </c>
@@ -3288,7 +3308,7 @@
       <c r="I122" s="21"/>
       <c r="J122" s="19"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="19">
         <v>114</v>
       </c>
@@ -3305,7 +3325,7 @@
       <c r="I123" s="21"/>
       <c r="J123" s="19"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="19">
         <v>115</v>
       </c>
@@ -3322,7 +3342,7 @@
       <c r="I124" s="21"/>
       <c r="J124" s="19"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="19">
         <v>116</v>
       </c>
@@ -3339,7 +3359,7 @@
       <c r="I125" s="21"/>
       <c r="J125" s="19"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="19">
         <v>117</v>
       </c>
@@ -3356,7 +3376,7 @@
       <c r="I126" s="21"/>
       <c r="J126" s="19"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="19">
         <v>118</v>
       </c>
@@ -3373,7 +3393,7 @@
       <c r="I127" s="21"/>
       <c r="J127" s="19"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="19">
         <v>119</v>
       </c>
@@ -3390,7 +3410,7 @@
       <c r="I128" s="21"/>
       <c r="J128" s="19"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="19">
         <v>120</v>
       </c>
@@ -3407,7 +3427,7 @@
       <c r="I129" s="21"/>
       <c r="J129" s="19"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="19">
         <v>121</v>
       </c>
@@ -3424,7 +3444,7 @@
       <c r="I130" s="21"/>
       <c r="J130" s="19"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="19">
         <v>122</v>
       </c>
@@ -3441,7 +3461,7 @@
       <c r="I131" s="21"/>
       <c r="J131" s="19"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="19">
         <v>123</v>
       </c>
@@ -3458,7 +3478,7 @@
       <c r="I132" s="21"/>
       <c r="J132" s="19"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="19">
         <v>124</v>
       </c>
@@ -3475,7 +3495,7 @@
       <c r="I133" s="21"/>
       <c r="J133" s="19"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="19">
         <v>125</v>
       </c>
@@ -3492,7 +3512,7 @@
       <c r="I134" s="21"/>
       <c r="J134" s="19"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="19">
         <v>126</v>
       </c>
@@ -3509,7 +3529,7 @@
       <c r="I135" s="21"/>
       <c r="J135" s="19"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="19">
         <v>127</v>
       </c>
@@ -3526,7 +3546,7 @@
       <c r="I136" s="21"/>
       <c r="J136" s="19"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="19">
         <v>128</v>
       </c>
@@ -3543,7 +3563,7 @@
       <c r="I137" s="21"/>
       <c r="J137" s="19"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="19">
         <v>129</v>
       </c>
@@ -3560,7 +3580,7 @@
       <c r="I138" s="21"/>
       <c r="J138" s="19"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="19">
         <v>130</v>
       </c>
@@ -3577,7 +3597,7 @@
       <c r="I139" s="21"/>
       <c r="J139" s="19"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="19">
         <v>131</v>
       </c>
@@ -3594,7 +3614,7 @@
       <c r="I140" s="21"/>
       <c r="J140" s="19"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="19">
         <v>132</v>
       </c>
@@ -3611,7 +3631,7 @@
       <c r="I141" s="21"/>
       <c r="J141" s="19"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="19">
         <v>133</v>
       </c>
@@ -3628,7 +3648,7 @@
       <c r="I142" s="21"/>
       <c r="J142" s="19"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="19">
         <v>134</v>
       </c>
@@ -3645,7 +3665,7 @@
       <c r="I143" s="21"/>
       <c r="J143" s="19"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="19">
         <v>135</v>
       </c>
@@ -3662,7 +3682,7 @@
       <c r="I144" s="21"/>
       <c r="J144" s="19"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="19">
         <v>136</v>
       </c>
@@ -3679,7 +3699,7 @@
       <c r="I145" s="21"/>
       <c r="J145" s="19"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="19">
         <v>137</v>
       </c>
@@ -3696,7 +3716,7 @@
       <c r="I146" s="21"/>
       <c r="J146" s="19"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="19">
         <v>138</v>
       </c>
@@ -3713,7 +3733,7 @@
       <c r="I147" s="21"/>
       <c r="J147" s="19"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="19">
         <v>139</v>
       </c>
@@ -3730,7 +3750,7 @@
       <c r="I148" s="21"/>
       <c r="J148" s="19"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="19">
         <v>140</v>
       </c>
@@ -3747,7 +3767,7 @@
       <c r="I149" s="21"/>
       <c r="J149" s="19"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="19">
         <v>141</v>
       </c>
@@ -3764,7 +3784,7 @@
       <c r="I150" s="21"/>
       <c r="J150" s="19"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="19">
         <v>142</v>
       </c>
@@ -3781,7 +3801,7 @@
       <c r="I151" s="21"/>
       <c r="J151" s="19"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="19">
         <v>143</v>
       </c>
@@ -3798,7 +3818,7 @@
       <c r="I152" s="21"/>
       <c r="J152" s="19"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="19">
         <v>144</v>
       </c>
@@ -3815,7 +3835,7 @@
       <c r="I153" s="21"/>
       <c r="J153" s="19"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="19">
         <v>145</v>
       </c>
@@ -3832,7 +3852,7 @@
       <c r="I154" s="21"/>
       <c r="J154" s="19"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="19">
         <v>146</v>
       </c>
@@ -3849,7 +3869,7 @@
       <c r="I155" s="21"/>
       <c r="J155" s="19"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="19">
         <v>147</v>
       </c>
@@ -3866,7 +3886,7 @@
       <c r="I156" s="21"/>
       <c r="J156" s="19"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="19">
         <v>148</v>
       </c>
@@ -3883,7 +3903,7 @@
       <c r="I157" s="21"/>
       <c r="J157" s="19"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="19">
         <v>149</v>
       </c>
@@ -3900,7 +3920,7 @@
       <c r="I158" s="21"/>
       <c r="J158" s="19"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="19">
         <v>150</v>
       </c>
@@ -3917,7 +3937,7 @@
       <c r="I159" s="21"/>
       <c r="J159" s="19"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="19">
         <v>151</v>
       </c>
@@ -3934,7 +3954,7 @@
       <c r="I160" s="21"/>
       <c r="J160" s="19"/>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="19">
         <v>152</v>
       </c>
@@ -3951,7 +3971,7 @@
       <c r="I161" s="21"/>
       <c r="J161" s="19"/>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="19">
         <v>153</v>
       </c>
@@ -3968,7 +3988,7 @@
       <c r="I162" s="21"/>
       <c r="J162" s="19"/>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="19">
         <v>154</v>
       </c>
@@ -3985,7 +4005,7 @@
       <c r="I163" s="21"/>
       <c r="J163" s="19"/>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="19">
         <v>155</v>
       </c>
@@ -4002,7 +4022,7 @@
       <c r="I164" s="21"/>
       <c r="J164" s="19"/>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="19">
         <v>156</v>
       </c>
@@ -4019,7 +4039,7 @@
       <c r="I165" s="21"/>
       <c r="J165" s="19"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="19">
         <v>157</v>
       </c>
@@ -4036,7 +4056,7 @@
       <c r="I166" s="21"/>
       <c r="J166" s="19"/>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="19">
         <v>158</v>
       </c>
@@ -4053,7 +4073,7 @@
       <c r="I167" s="21"/>
       <c r="J167" s="19"/>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="19">
         <v>159</v>
       </c>
@@ -4070,7 +4090,7 @@
       <c r="I168" s="21"/>
       <c r="J168" s="19"/>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="19">
         <v>160</v>
       </c>
@@ -4087,7 +4107,7 @@
       <c r="I169" s="21"/>
       <c r="J169" s="19"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="19">
         <v>161</v>
       </c>
@@ -4104,7 +4124,7 @@
       <c r="I170" s="21"/>
       <c r="J170" s="19"/>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="19">
         <v>162</v>
       </c>
@@ -4121,7 +4141,7 @@
       <c r="I171" s="21"/>
       <c r="J171" s="19"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="19">
         <v>163</v>
       </c>
@@ -4142,11 +4162,11 @@
       </c>
       <c r="L172" s="34" t="str">
         <f>SUM(I10:I105)</f>
-        <v>1278</v>
+        <v>1423</v>
       </c>
       <c r="M172" s="35"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="19">
         <v>164</v>
       </c>
@@ -4167,14 +4187,14 @@
       </c>
       <c r="L173" s="37" t="str">
         <f>SUMIF(J10:J105,"M",I10:I105)</f>
-        <v>99</v>
+        <v>244</v>
       </c>
       <c r="M173" s="38" t="str">
         <f>L173/L172</f>
-        <v>7.%</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+        <v>17%</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="19">
         <v>165</v>
       </c>
@@ -4195,7 +4215,7 @@
       </c>
       <c r="L174" s="40" t="str">
         <f>C5+L172</f>
-        <v>6956</v>
+        <v>7099</v>
       </c>
       <c r="M174" s="41"/>
     </row>

--- a/2021-01__Teszt_Elek__ELEK-01_gkelsz.xlsx
+++ b/2021-01__Teszt_Elek__ELEK-01_gkelsz.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="74">
   <si>
     <t>ÚTNYILVÁNTARTÁS</t>
   </si>
@@ -131,7 +131,7 @@
     <t>5678</t>
   </si>
   <si>
-    <t>7099</t>
+    <t>10906</t>
   </si>
   <si>
     <t xml:space="preserve"> Teszt Elek</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve"> 16,5</t>
   </si>
   <si>
-    <t>1423</t>
+    <t>5485</t>
   </si>
   <si>
     <t>0.0</t>
@@ -201,6 +201,60 @@
   </si>
   <si>
     <t>AKHB2200/K &amp; H BANK ZRT.</t>
+  </si>
+  <si>
+    <t>Szombathely Éhen Gyula tér 2.</t>
+  </si>
+  <si>
+    <t>AKHB2078/K &amp; H BANK ZRT.</t>
+  </si>
+  <si>
+    <t>Edelény Antal György u. 3.</t>
+  </si>
+  <si>
+    <t>AKHB2144/K &amp; H BANK ZRT.</t>
+  </si>
+  <si>
+    <t>Monostorpályi Landler tér 4.</t>
+  </si>
+  <si>
+    <t>AKHB2122/K &amp; H BANK ZRT.</t>
+  </si>
+  <si>
+    <t>Nyírbátor Debreceni út 71.</t>
+  </si>
+  <si>
+    <t>AKHB2317/K &amp; H BANK ZRT.</t>
+  </si>
+  <si>
+    <t>Cegléd Ipartelepi u. 3.</t>
+  </si>
+  <si>
+    <t>AKHB2340/K &amp; H BANK ZRT.</t>
+  </si>
+  <si>
+    <t>Sárvár Rákóczi u. 83.</t>
+  </si>
+  <si>
+    <t>AKHB2362/K &amp; H BANK ZRT.</t>
+  </si>
+  <si>
+    <t>Nyíregyháza Állomás tér 3.</t>
+  </si>
+  <si>
+    <t>AKHB2670/K &amp; H BANK ZRT.</t>
+  </si>
+  <si>
+    <t>Budapest Andrássy út 49.</t>
+  </si>
+  <si>
+    <t>AKHK2155/K &amp; H BANK ZRT.</t>
+  </si>
+  <si>
+    <t>Debrecen Füredi út 27.</t>
+  </si>
+  <si>
+    <t>AKHB2072/K &amp; H BANK ZRT.</t>
   </si>
 </sst>
 </file>
@@ -1545,13 +1599,13 @@
       </c>
       <c r="G19" s="25" t="n">
         <f t="shared" si="0"/>
-        <v>7101.0</v>
+        <v>7358.0</v>
       </c>
       <c r="H19" s="21" t="n">
         <v>0.0</v>
       </c>
       <c r="I19" s="21" t="n">
-        <v>122.0</v>
+        <v>379.0</v>
       </c>
       <c r="J19" s="19" t="s">
         <v>23</v>
@@ -1561,239 +1615,463 @@
       <c r="A20" s="19">
         <v>11</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="25" t="str">
+      <c r="B20" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="25" t="n">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="19"/>
+        <v>7507.0</v>
+      </c>
+      <c r="H20" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I20" s="21" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>12</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="25" t="str">
+      <c r="B21" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="25" t="n">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="19"/>
+        <v>7958.0</v>
+      </c>
+      <c r="H21" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I21" s="21" t="n">
+        <v>451.0</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>13</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="25" t="str">
+      <c r="B22" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="25" t="n">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="19"/>
+        <v>8123.0</v>
+      </c>
+      <c r="H22" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I22" s="21" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>14</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="25" t="str">
+      <c r="B23" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="25" t="n">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="19"/>
+        <v>8196.0</v>
+      </c>
+      <c r="H23" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="21" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>15</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="25" t="str">
+      <c r="B24" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="25" t="n">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="19"/>
+        <v>8440.0</v>
+      </c>
+      <c r="H24" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="21" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>16</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="25" t="str">
+      <c r="B25" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="25" t="n">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="19"/>
+        <v>8726.0</v>
+      </c>
+      <c r="H25" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I25" s="21" t="n">
+        <v>286.0</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>17</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="25" t="str">
+      <c r="B26" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="25" t="n">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="19"/>
+        <v>9187.0</v>
+      </c>
+      <c r="H26" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I26" s="21" t="n">
+        <v>461.0</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>18</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="25" t="str">
+      <c r="B27" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="25" t="n">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="19"/>
+        <v>9547.0</v>
+      </c>
+      <c r="H27" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I27" s="21" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>19</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="25" t="str">
+      <c r="B28" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="25" t="n">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="19"/>
+        <v>9649.0</v>
+      </c>
+      <c r="H28" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I28" s="21" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>20</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="25" t="str">
+      <c r="B29" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="25" t="n">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="19"/>
+        <v>9751.0</v>
+      </c>
+      <c r="H29" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I29" s="21" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>21</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="25" t="str">
+      <c r="B30" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="25" t="n">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="19"/>
+        <v>10104.0</v>
+      </c>
+      <c r="H30" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I30" s="21" t="n">
+        <v>353.0</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>22</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="25" t="str">
+      <c r="B31" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="25" t="n">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="19"/>
+        <v>10457.0</v>
+      </c>
+      <c r="H31" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I31" s="21" t="n">
+        <v>353.0</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>23</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="25" t="str">
+      <c r="B32" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="25" t="n">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="19"/>
+        <v>10810.0</v>
+      </c>
+      <c r="H32" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I32" s="21" t="n">
+        <v>353.0</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>24</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="25" t="str">
+      <c r="B33" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="25" t="n">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="19"/>
+        <v>11163.0</v>
+      </c>
+      <c r="H33" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I33" s="21" t="n">
+        <v>353.0</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
@@ -4162,7 +4440,7 @@
       </c>
       <c r="L172" s="34" t="str">
         <f>SUM(I10:I105)</f>
-        <v>1423</v>
+        <v>5485</v>
       </c>
       <c r="M172" s="35"/>
     </row>
@@ -4187,11 +4465,11 @@
       </c>
       <c r="L173" s="37" t="str">
         <f>SUMIF(J10:J105,"M",I10:I105)</f>
-        <v>244</v>
+        <v>501</v>
       </c>
       <c r="M173" s="38" t="str">
         <f>L173/L172</f>
-        <v>17%</v>
+        <v>9.%</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -4215,7 +4493,7 @@
       </c>
       <c r="L174" s="40" t="str">
         <f>C5+L172</f>
-        <v>7099</v>
+        <v>10906</v>
       </c>
       <c r="M174" s="41"/>
     </row>

--- a/2021-01__Teszt_Elek__ELEK-01_gkelsz.xlsx
+++ b/2021-01__Teszt_Elek__ELEK-01_gkelsz.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
   <si>
     <t>ÚTNYILVÁNTARTÁS</t>
   </si>
@@ -131,7 +131,7 @@
     <t>5678</t>
   </si>
   <si>
-    <t>10906</t>
+    <t>7544</t>
   </si>
   <si>
     <t xml:space="preserve"> Teszt Elek</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve"> 16,5</t>
   </si>
   <si>
-    <t>5485</t>
+    <t>1842</t>
   </si>
   <si>
     <t>0.0</t>
@@ -201,60 +201,6 @@
   </si>
   <si>
     <t>AKHB2200/K &amp; H BANK ZRT.</t>
-  </si>
-  <si>
-    <t>Szombathely Éhen Gyula tér 2.</t>
-  </si>
-  <si>
-    <t>AKHB2078/K &amp; H BANK ZRT.</t>
-  </si>
-  <si>
-    <t>Edelény Antal György u. 3.</t>
-  </si>
-  <si>
-    <t>AKHB2144/K &amp; H BANK ZRT.</t>
-  </si>
-  <si>
-    <t>Monostorpályi Landler tér 4.</t>
-  </si>
-  <si>
-    <t>AKHB2122/K &amp; H BANK ZRT.</t>
-  </si>
-  <si>
-    <t>Nyírbátor Debreceni út 71.</t>
-  </si>
-  <si>
-    <t>AKHB2317/K &amp; H BANK ZRT.</t>
-  </si>
-  <si>
-    <t>Cegléd Ipartelepi u. 3.</t>
-  </si>
-  <si>
-    <t>AKHB2340/K &amp; H BANK ZRT.</t>
-  </si>
-  <si>
-    <t>Sárvár Rákóczi u. 83.</t>
-  </si>
-  <si>
-    <t>AKHB2362/K &amp; H BANK ZRT.</t>
-  </si>
-  <si>
-    <t>Nyíregyháza Állomás tér 3.</t>
-  </si>
-  <si>
-    <t>AKHB2670/K &amp; H BANK ZRT.</t>
-  </si>
-  <si>
-    <t>Budapest Andrássy út 49.</t>
-  </si>
-  <si>
-    <t>AKHK2155/K &amp; H BANK ZRT.</t>
-  </si>
-  <si>
-    <t>Debrecen Füredi út 27.</t>
-  </si>
-  <si>
-    <t>AKHB2072/K &amp; H BANK ZRT.</t>
   </si>
 </sst>
 </file>
@@ -1500,13 +1446,13 @@
       </c>
       <c r="G16" s="25" t="n">
         <f t="shared" si="0"/>
-        <v>6617.0</v>
+        <v>6706.0</v>
       </c>
       <c r="H16" s="21" t="n">
         <v>0.0</v>
       </c>
       <c r="I16" s="21" t="n">
-        <v>122.0</v>
+        <v>211.0</v>
       </c>
       <c r="J16" s="19" t="s">
         <v>23</v>
@@ -1533,7 +1479,7 @@
       </c>
       <c r="G17" s="25" t="n">
         <f t="shared" si="0"/>
-        <v>6845.0</v>
+        <v>6934.0</v>
       </c>
       <c r="H17" s="21" t="n">
         <v>0.0</v>
@@ -1566,7 +1512,7 @@
       </c>
       <c r="G18" s="25" t="n">
         <f t="shared" si="0"/>
-        <v>6979.0</v>
+        <v>7068.0</v>
       </c>
       <c r="H18" s="21" t="n">
         <v>0.0</v>
@@ -1599,13 +1545,13 @@
       </c>
       <c r="G19" s="25" t="n">
         <f t="shared" si="0"/>
-        <v>7358.0</v>
+        <v>7167.0</v>
       </c>
       <c r="H19" s="21" t="n">
         <v>0.0</v>
       </c>
       <c r="I19" s="21" t="n">
-        <v>379.0</v>
+        <v>99.0</v>
       </c>
       <c r="J19" s="19" t="s">
         <v>23</v>
@@ -1619,459 +1565,251 @@
         <v>39</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G20" s="25" t="n">
         <f t="shared" si="0"/>
-        <v>7507.0</v>
+        <v>7520.0</v>
       </c>
       <c r="H20" s="21" t="n">
         <v>0.0</v>
       </c>
       <c r="I20" s="21" t="n">
-        <v>149.0</v>
+        <v>353.0</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>12</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="25" t="n">
+      <c r="B21" s="24"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>7958.0</v>
-      </c>
-      <c r="H21" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I21" s="21" t="n">
-        <v>451.0</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>44</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="19"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>13</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="25" t="n">
+      <c r="B22" s="24"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>8123.0</v>
-      </c>
-      <c r="H22" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I22" s="21" t="n">
-        <v>165.0</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>44</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="19"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>14</v>
       </c>
-      <c r="B23" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="25" t="n">
+      <c r="B23" s="24"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>8196.0</v>
-      </c>
-      <c r="H23" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I23" s="21" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>44</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>15</v>
       </c>
-      <c r="B24" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="25" t="n">
+      <c r="B24" s="24"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>8440.0</v>
-      </c>
-      <c r="H24" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I24" s="21" t="n">
-        <v>244.0</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>44</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>16</v>
       </c>
-      <c r="B25" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="25" t="n">
+      <c r="B25" s="24"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>8726.0</v>
-      </c>
-      <c r="H25" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I25" s="21" t="n">
-        <v>286.0</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>44</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="19"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>17</v>
       </c>
-      <c r="B26" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="25" t="n">
+      <c r="B26" s="24"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>9187.0</v>
-      </c>
-      <c r="H26" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I26" s="21" t="n">
-        <v>461.0</v>
-      </c>
-      <c r="J26" s="19" t="s">
-        <v>44</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="19"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>18</v>
       </c>
-      <c r="B27" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="25" t="n">
+      <c r="B27" s="24"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>9547.0</v>
-      </c>
-      <c r="H27" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I27" s="21" t="n">
-        <v>360.0</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>44</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="19"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>19</v>
       </c>
-      <c r="B28" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="25" t="n">
+      <c r="B28" s="24"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>9649.0</v>
-      </c>
-      <c r="H28" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I28" s="21" t="n">
-        <v>102.0</v>
-      </c>
-      <c r="J28" s="19" t="s">
-        <v>44</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="19"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>20</v>
       </c>
-      <c r="B29" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" s="25" t="n">
+      <c r="B29" s="24"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>9751.0</v>
-      </c>
-      <c r="H29" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I29" s="21" t="n">
-        <v>102.0</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>44</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="19"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>21</v>
       </c>
-      <c r="B30" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G30" s="25" t="n">
+      <c r="B30" s="24"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>10104.0</v>
-      </c>
-      <c r="H30" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I30" s="21" t="n">
-        <v>353.0</v>
-      </c>
-      <c r="J30" s="19" t="s">
-        <v>44</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="19"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>22</v>
       </c>
-      <c r="B31" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" s="25" t="n">
+      <c r="B31" s="24"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>10457.0</v>
-      </c>
-      <c r="H31" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I31" s="21" t="n">
-        <v>353.0</v>
-      </c>
-      <c r="J31" s="19" t="s">
-        <v>44</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="19"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>23</v>
       </c>
-      <c r="B32" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G32" s="25" t="n">
+      <c r="B32" s="24"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>10810.0</v>
-      </c>
-      <c r="H32" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I32" s="21" t="n">
-        <v>353.0</v>
-      </c>
-      <c r="J32" s="19" t="s">
-        <v>44</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="19"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>24</v>
       </c>
-      <c r="B33" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="25" t="n">
+      <c r="B33" s="24"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>11163.0</v>
-      </c>
-      <c r="H33" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I33" s="21" t="n">
-        <v>353.0</v>
-      </c>
-      <c r="J33" s="19" t="s">
-        <v>44</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="19"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
@@ -4440,7 +4178,7 @@
       </c>
       <c r="L172" s="34" t="str">
         <f>SUM(I10:I105)</f>
-        <v>5485</v>
+        <v>1842</v>
       </c>
       <c r="M172" s="35"/>
     </row>
@@ -4465,11 +4203,11 @@
       </c>
       <c r="L173" s="37" t="str">
         <f>SUMIF(J10:J105,"M",I10:I105)</f>
-        <v>501</v>
+        <v>663</v>
       </c>
       <c r="M173" s="38" t="str">
         <f>L173/L172</f>
-        <v>9.%</v>
+        <v>35%</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -4493,7 +4231,7 @@
       </c>
       <c r="L174" s="40" t="str">
         <f>C5+L172</f>
-        <v>10906</v>
+        <v>7544</v>
       </c>
       <c r="M174" s="41"/>
     </row>
